--- a/data/us/20-04_10 world o meter adjusted covid cases by state.xlsx
+++ b/data/us/20-04_10 world o meter adjusted covid cases by state.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/71ffaa969b2b2dbb/Meridian/h Computer Science/Teacher Projects/COVID/data/us/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{3E2F9375-1CC7-41CA-BBFC-068022871340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{268A79CD-EEF1-4806-AF5B-8729DC336D19}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{3E2F9375-1CC7-41CA-BBFC-068022871340}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{816B23E0-9C2E-443F-804B-C134F91852E0}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
+    <workbookView xWindow="2340" yWindow="-21720" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{C2EC3F12-84D7-4DDA-AADC-120E6E7C982F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Updates" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -709,9 +709,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -728,17 +725,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -751,12 +748,25 @@
   <dxfs count="5">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -771,29 +781,14 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1122,22 +1117,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="K1" s="51" t="s">
+      <c r="K1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O1" s="8"/>
-      <c r="P1" s="52" t="s">
+      <c r="P1" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:21" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="29" t="s">
@@ -4853,27 +4848,27 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="47">
+      <c r="B59" s="46">
         <v>43</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47">
+      <c r="C59" s="46"/>
+      <c r="D59" s="46">
         <v>1</v>
       </c>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47">
+      <c r="E59" s="46"/>
+      <c r="F59" s="46">
         <v>8</v>
       </c>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="47">
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46">
         <v>266</v>
       </c>
-      <c r="J59" s="47"/>
-      <c r="K59" s="48"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="47"/>
       <c r="L59" s="27"/>
       <c r="M59" s="6">
         <f t="shared" si="10"/>
@@ -4926,11 +4921,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9B5581-99F4-4752-AB5D-E061591DB7E6}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D56"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -4946,7 +4941,7 @@
     <col min="13" max="16384" width="8.7265625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
@@ -4981,861 +4976,867 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>2838</v>
+        <v>161504</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2">
-        <v>78</v>
+      <c r="D2" s="1">
+        <v>7067</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1">
-        <v>2740</v>
-      </c>
-      <c r="G2" s="2">
-        <v>583</v>
+        <v>138203</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8232</v>
       </c>
       <c r="H2" s="2">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="I2" s="1">
-        <v>20605</v>
+        <v>391549</v>
       </c>
       <c r="J2" s="1">
-        <v>4236</v>
+        <v>19958</v>
       </c>
       <c r="K2" s="41"/>
-      <c r="L2" s="50">
+      <c r="L2" s="49">
         <f>IFERROR(B2/I2,0)</f>
-        <v>0.13773355981557875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.4124745561858158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="2">
-        <v>235</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>51027</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2">
-        <v>7</v>
+      <c r="D3" s="1">
+        <v>1700</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2">
-        <v>179</v>
-      </c>
-      <c r="G3" s="2">
-        <v>318</v>
+      <c r="F3" s="1">
+        <v>49235</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5745</v>
       </c>
       <c r="H3" s="2">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1">
-        <v>7223</v>
+        <v>100326</v>
       </c>
       <c r="J3" s="1">
-        <v>9780</v>
-      </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="50">
+        <v>11296</v>
+      </c>
+      <c r="L3" s="49">
         <f>IFERROR(B3/I3,0)</f>
-        <v>3.2534957773778211E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.50861192512409548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
-        <v>3018</v>
+        <v>18283</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2">
-        <v>89</v>
+        <v>702</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1">
-        <v>2909</v>
-      </c>
-      <c r="G4" s="2">
-        <v>434</v>
+        <v>17531</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3920</v>
       </c>
       <c r="H4" s="2">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="I4" s="1">
-        <v>37178</v>
+        <v>86919</v>
       </c>
       <c r="J4" s="1">
-        <v>5352</v>
-      </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="50">
+        <v>18638</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="49">
         <f>IFERROR(B4/I4,0)</f>
-        <v>8.1177040185055685E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.21034526398140799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>1146</v>
+        <v>21504</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>21</v>
+      <c r="D5" s="1">
+        <v>1076</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>820</v>
-      </c>
-      <c r="G5" s="2">
-        <v>383</v>
+      <c r="F5" s="1">
+        <v>20359</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2160</v>
       </c>
       <c r="H5" s="2">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I5" s="1">
-        <v>15702</v>
+        <v>52866</v>
       </c>
       <c r="J5" s="1">
-        <v>5250</v>
-      </c>
-      <c r="K5" s="41"/>
-      <c r="L5" s="50">
+        <v>5309</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="49">
         <f>IFERROR(B5/I5,0)</f>
-        <v>7.2984333205961024E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.40676427193281128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1">
-        <v>20212</v>
-      </c>
-      <c r="C6" s="4">
-        <v>241</v>
-      </c>
+        <v>9784</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>559</v>
+        <v>380</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1">
-        <v>18713</v>
-      </c>
-      <c r="G6" s="2">
-        <v>516</v>
+        <v>9354</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2732</v>
       </c>
       <c r="H6" s="2">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="I6" s="1">
-        <v>163500</v>
+        <v>33502</v>
       </c>
       <c r="J6" s="1">
-        <v>4176</v>
-      </c>
-      <c r="L6" s="50">
+        <v>9354</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="49">
         <f>IFERROR(B6/I6,0)</f>
-        <v>0.12362079510703364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.29204226613336515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>6202</v>
+        <v>18941</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2">
-        <v>226</v>
+        <v>503</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1">
-        <v>5936</v>
+        <v>18428</v>
       </c>
       <c r="G7" s="1">
-        <v>1121</v>
+        <v>2773</v>
       </c>
       <c r="H7" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1">
-        <v>31180</v>
+        <v>94958</v>
       </c>
       <c r="J7" s="1">
-        <v>5637</v>
+        <v>13903</v>
       </c>
       <c r="K7" s="41"/>
-      <c r="L7" s="50">
+      <c r="L7" s="49">
         <f>IFERROR(B7/I7,0)</f>
-        <v>0.19890955740859526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.19946713283767561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>9784</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>9740</v>
+      </c>
+      <c r="C8" s="4">
+        <v>88</v>
+      </c>
       <c r="D8" s="2">
-        <v>380</v>
+        <v>455</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1">
-        <v>9354</v>
+        <v>8211</v>
       </c>
       <c r="G8" s="1">
-        <v>2732</v>
+        <v>1335</v>
       </c>
       <c r="H8" s="2">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="I8" s="1">
-        <v>33502</v>
+        <v>92999</v>
       </c>
       <c r="J8" s="1">
-        <v>9354</v>
-      </c>
-      <c r="K8" s="43"/>
-      <c r="L8" s="50">
+        <v>12749</v>
+      </c>
+      <c r="L8" s="49">
         <f>IFERROR(B8/I8,0)</f>
-        <v>0.29204226613336515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.10473230894955859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1">
-        <v>1209</v>
+        <v>1523</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1">
-        <v>1013</v>
+        <v>1098</v>
       </c>
       <c r="G9" s="1">
-        <v>1273</v>
+        <v>2225</v>
       </c>
       <c r="H9" s="2">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1">
-        <v>9890</v>
+        <v>8724</v>
       </c>
       <c r="J9" s="1">
-        <v>10416</v>
-      </c>
-      <c r="K9" s="41"/>
-      <c r="L9" s="50">
+        <v>12745</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="49">
         <f>IFERROR(B9/I9,0)</f>
-        <v>0.12224469160768453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.17457588262265017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1">
-        <v>1523</v>
+        <v>1727</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1">
-        <v>1098</v>
+        <v>1674</v>
       </c>
       <c r="G10" s="1">
-        <v>2225</v>
+        <v>1634</v>
       </c>
       <c r="H10" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
-        <v>8724</v>
+        <v>14008</v>
       </c>
       <c r="J10" s="1">
-        <v>12745</v>
-      </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="50">
+        <v>13257</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="49">
         <f>IFERROR(B10/I10,0)</f>
-        <v>0.17457588262265017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.12328669331810393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>16826</v>
+        <v>16422</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
-        <v>371</v>
+        <v>528</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1">
-        <v>16355</v>
-      </c>
-      <c r="G11" s="2">
-        <v>817</v>
+        <v>15844</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1281</v>
       </c>
       <c r="H11" s="2">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1">
+        <v>80857</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6306</v>
+      </c>
+      <c r="K11" s="41"/>
+      <c r="L11" s="49">
+        <f>IFERROR(B11/I11,0)</f>
+        <v>0.20309929876201194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="1">
-        <v>158375</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7689</v>
-      </c>
-      <c r="K11" s="41"/>
-      <c r="L11" s="50">
-        <f>IFERROR(B11/I11,0)</f>
-        <v>0.10624151539068666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="1">
-        <v>10885</v>
+        <v>6202</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>412</v>
+        <v>226</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1">
-        <v>10442</v>
+        <v>5936</v>
       </c>
       <c r="G12" s="1">
-        <v>1057</v>
+        <v>1121</v>
       </c>
       <c r="H12" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1">
-        <v>41085</v>
+        <v>31180</v>
       </c>
       <c r="J12" s="1">
-        <v>3990</v>
-      </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="50">
+        <v>5637</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="49">
         <f>IFERROR(B12/I12,0)</f>
-        <v>0.26493854204697576</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.19890955740859526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>128</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10885</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>91</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>605</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="50">
+      <c r="F13" s="1">
+        <v>10442</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1057</v>
+      </c>
+      <c r="H13" s="2">
+        <v>40</v>
+      </c>
+      <c r="I13" s="1">
+        <v>41085</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3990</v>
+      </c>
+      <c r="K13" s="42"/>
+      <c r="L13" s="49">
         <f>IFERROR(B13/I13,0)</f>
-        <v>0.21157024793388429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.26493854204697576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" s="2">
-        <v>442</v>
+        <v>628</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2">
-        <v>185</v>
-      </c>
-      <c r="G14" s="2">
-        <v>311</v>
+        <v>605</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1005</v>
       </c>
       <c r="H14" s="2">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="I14" s="1">
-        <v>16149</v>
+        <v>8181</v>
       </c>
       <c r="J14" s="1">
-        <v>11356</v>
-      </c>
-      <c r="K14" s="43"/>
-      <c r="L14" s="50">
+        <v>13090</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="49">
         <f>IFERROR(B14/I14,0)</f>
-        <v>2.7370115796643755E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.6763231878743426E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>1353</v>
+        <v>6351</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1">
-        <v>1329</v>
+        <v>6092</v>
       </c>
       <c r="G15" s="2">
-        <v>802</v>
+        <v>957</v>
       </c>
       <c r="H15" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I15" s="1">
-        <v>13094</v>
+        <v>32133</v>
       </c>
       <c r="J15" s="1">
-        <v>7758</v>
-      </c>
-      <c r="K15" s="41"/>
-      <c r="L15" s="50">
+        <v>4841</v>
+      </c>
+      <c r="K15" s="40"/>
+      <c r="L15" s="49">
         <f>IFERROR(B15/I15,0)</f>
-        <v>0.10332976936001222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.19764727849873961</v>
+      </c>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1">
-        <v>16422</v>
+        <v>2456</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>528</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="E16" s="3">
+        <v>6</v>
+      </c>
       <c r="F16" s="1">
-        <v>15844</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1281</v>
+        <v>2322</v>
+      </c>
+      <c r="G16" s="2">
+        <v>840</v>
       </c>
       <c r="H16" s="2">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1">
-        <v>80857</v>
+        <v>26074</v>
       </c>
       <c r="J16" s="1">
-        <v>6306</v>
-      </c>
-      <c r="K16" s="41"/>
-      <c r="L16" s="50">
+        <v>8921</v>
+      </c>
+      <c r="L16" s="49">
         <f>IFERROR(B16/I16,0)</f>
-        <v>0.20309929876201194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.4193449413208563E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>6351</v>
+        <v>18546</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
-        <v>245</v>
+        <v>360</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1">
-        <v>6092</v>
-      </c>
-      <c r="G17" s="2">
-        <v>957</v>
+        <v>18052</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1450</v>
       </c>
       <c r="H17" s="2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1">
-        <v>32133</v>
+        <v>105602</v>
       </c>
       <c r="J17" s="1">
-        <v>4841</v>
-      </c>
-      <c r="K17" s="40"/>
-      <c r="L17" s="50">
+        <v>8256</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="49">
         <f>IFERROR(B17/I17,0)</f>
-        <v>0.19764727849873961</v>
-      </c>
-      <c r="N17" s="39"/>
-    </row>
-    <row r="18" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.175621673831935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B18" s="1">
-        <v>1270</v>
+        <v>2260</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1">
-        <v>1152</v>
+        <v>2184</v>
       </c>
       <c r="G18" s="2">
-        <v>405</v>
+        <v>756</v>
       </c>
       <c r="H18" s="2">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1">
-        <v>14973</v>
+        <v>20635</v>
       </c>
       <c r="J18" s="1">
-        <v>4780</v>
-      </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="50">
+        <v>6904</v>
+      </c>
+      <c r="K18" s="41"/>
+      <c r="L18" s="49">
         <f>IFERROR(B18/I18,0)</f>
-        <v>8.4819341481333063E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.10952265568209353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
-        <v>1106</v>
+        <v>1209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1">
-        <v>1064</v>
-      </c>
-      <c r="G19" s="2">
-        <v>380</v>
+        <v>1013</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1273</v>
       </c>
       <c r="H19" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I19" s="1">
-        <v>10775</v>
+        <v>9890</v>
       </c>
       <c r="J19" s="1">
-        <v>3704</v>
+        <v>10416</v>
       </c>
       <c r="K19" s="41"/>
-      <c r="L19" s="50">
+      <c r="L19" s="49">
         <f>IFERROR(B19/I19,0)</f>
-        <v>0.10264501160092808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.12224469160768453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
-        <v>1452</v>
+        <v>6185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2">
-        <v>79</v>
+        <v>138</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1">
-        <v>1067</v>
-      </c>
-      <c r="G20" s="2">
-        <v>327</v>
+        <v>5671</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1030</v>
       </c>
       <c r="H20" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1">
-        <v>23170</v>
+        <v>41529</v>
       </c>
       <c r="J20" s="1">
-        <v>5218</v>
+        <v>6918</v>
       </c>
       <c r="K20" s="41"/>
-      <c r="L20" s="50">
+      <c r="L20" s="49">
         <f>IFERROR(B20/I20,0)</f>
-        <v>6.2667242123435482E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.14893207156444893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1">
-        <v>18283</v>
+        <v>1684</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
-        <v>702</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1">
-        <v>17531</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3920</v>
+        <v>1082</v>
+      </c>
+      <c r="G21" s="2">
+        <v>430</v>
       </c>
       <c r="H21" s="2">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="I21" s="1">
-        <v>86919</v>
+        <v>22246</v>
       </c>
       <c r="J21" s="1">
-        <v>18638</v>
+        <v>5678</v>
       </c>
       <c r="K21" s="41"/>
-      <c r="L21" s="50">
+      <c r="L21" s="49">
         <f>IFERROR(B21/I21,0)</f>
-        <v>0.21034526398140799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.5699002067787471E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2">
-        <v>560</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2885</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>342</v>
+      <c r="F22" s="1">
+        <v>2709</v>
       </c>
       <c r="G22" s="2">
-        <v>420</v>
+        <v>499</v>
       </c>
       <c r="H22" s="2">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1">
-        <v>6625</v>
+        <v>34309</v>
       </c>
       <c r="J22" s="1">
-        <v>4971</v>
-      </c>
-      <c r="K22" s="40"/>
-      <c r="L22" s="50">
+        <v>5937</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="49">
         <f>IFERROR(B22/I22,0)</f>
-        <v>8.4528301886792459E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.408872307557784E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
-        <v>6185</v>
+        <v>16826</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2">
-        <v>138</v>
+        <v>371</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1">
-        <v>5671</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1030</v>
+        <v>16355</v>
+      </c>
+      <c r="G23" s="2">
+        <v>817</v>
       </c>
       <c r="H23" s="2">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I23" s="1">
-        <v>41529</v>
+        <v>158375</v>
       </c>
       <c r="J23" s="1">
-        <v>6918</v>
+        <v>7689</v>
       </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="50">
+      <c r="L23" s="49">
         <f>IFERROR(B23/I23,0)</f>
-        <v>0.14893207156444893</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.10624151539068666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1">
-        <v>18941</v>
+        <v>5512</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2">
-        <v>503</v>
+        <v>213</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1">
-        <v>18428</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2773</v>
+        <v>5299</v>
+      </c>
+      <c r="G24" s="2">
+        <v>473</v>
       </c>
       <c r="H24" s="2">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I24" s="1">
-        <v>94958</v>
+        <v>55985</v>
       </c>
       <c r="J24" s="1">
-        <v>13903</v>
+        <v>4809</v>
       </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="50">
+      <c r="L24" s="49">
         <f>IFERROR(B24/I24,0)</f>
-        <v>0.19946713283767561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>9.8454943288380822E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
-        <v>21504</v>
+        <v>1452</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="1">
-        <v>1076</v>
+      <c r="D25" s="2">
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1">
-        <v>20359</v>
-      </c>
-      <c r="G25" s="1">
-        <v>2160</v>
+        <v>1067</v>
+      </c>
+      <c r="G25" s="2">
+        <v>327</v>
       </c>
       <c r="H25" s="2">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="I25" s="1">
-        <v>52866</v>
+        <v>23170</v>
       </c>
       <c r="J25" s="1">
-        <v>5309</v>
-      </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="50">
+        <v>5218</v>
+      </c>
+      <c r="K25" s="41"/>
+      <c r="L25" s="49">
         <f>IFERROR(B25/I25,0)</f>
-        <v>0.40676427193281128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>6.2667242123435482E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="1">
-        <v>1242</v>
+        <v>42</v>
+      </c>
+      <c r="B26" s="2">
+        <v>819</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2">
-        <v>517</v>
+        <v>571</v>
       </c>
       <c r="G26" s="2">
-        <v>225</v>
+        <v>610</v>
       </c>
       <c r="H26" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I26" s="1">
-        <v>32294</v>
+        <v>9958</v>
       </c>
       <c r="J26" s="1">
-        <v>5843</v>
-      </c>
-      <c r="K26" s="41"/>
-      <c r="L26" s="50">
+        <v>7411</v>
+      </c>
+      <c r="K26" s="43"/>
+      <c r="L26" s="49">
         <f>IFERROR(B26/I26,0)</f>
-        <v>3.8459156499659378E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8.2245430809399472E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27" s="1">
-        <v>2260</v>
+        <v>2838</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1">
-        <v>2184</v>
+        <v>2740</v>
       </c>
       <c r="G27" s="2">
-        <v>756</v>
+        <v>583</v>
       </c>
       <c r="H27" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1">
-        <v>20635</v>
+        <v>20605</v>
       </c>
       <c r="J27" s="1">
-        <v>6904</v>
+        <v>4236</v>
       </c>
       <c r="K27" s="41"/>
-      <c r="L27" s="50">
+      <c r="L27" s="49">
         <f>IFERROR(B27/I27,0)</f>
-        <v>0.10952265568209353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.13773355981557875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>35</v>
       </c>
@@ -5863,688 +5864,701 @@
         <v>6647</v>
       </c>
       <c r="K28" s="41"/>
-      <c r="L28" s="50">
+      <c r="L28" s="49">
         <f>IFERROR(B28/I28,0)</f>
         <v>8.7425889328063236E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="2">
-        <v>354</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1353</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2">
-        <v>191</v>
+      <c r="F29" s="1">
+        <v>1329</v>
       </c>
       <c r="G29" s="2">
-        <v>340</v>
+        <v>802</v>
       </c>
       <c r="H29" s="2">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1">
-        <v>7860</v>
+        <v>13094</v>
       </c>
       <c r="J29" s="1">
-        <v>7545</v>
+        <v>7758</v>
       </c>
       <c r="K29" s="41"/>
-      <c r="L29" s="50">
+      <c r="L29" s="49">
         <f>IFERROR(B29/I29,0)</f>
-        <v>4.5038167938931298E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.10332976936001222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="2">
-        <v>567</v>
+        <v>20</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4634</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
+        <v>94</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
+        <v>3619</v>
+      </c>
+      <c r="G30" s="2">
+        <v>697</v>
+      </c>
+      <c r="H30" s="2">
         <v>14</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>553</v>
-      </c>
-      <c r="G30" s="2">
-        <v>298</v>
-      </c>
-      <c r="H30" s="2">
-        <v>7</v>
-      </c>
       <c r="I30" s="1">
-        <v>8707</v>
+        <v>59849</v>
       </c>
       <c r="J30" s="1">
-        <v>4571</v>
+        <v>8998</v>
       </c>
       <c r="K30" s="41"/>
-      <c r="L30" s="50">
+      <c r="L30" s="49">
         <f>IFERROR(B30/I30,0)</f>
-        <v>6.5120018376019301E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>7.7428194288960556E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>2456</v>
+        <v>2792</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
-        <v>86</v>
-      </c>
-      <c r="E31" s="3">
-        <v>6</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="1">
-        <v>2322</v>
+        <v>2725</v>
       </c>
       <c r="G31" s="2">
-        <v>840</v>
+        <v>563</v>
       </c>
       <c r="H31" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I31" s="1">
-        <v>26074</v>
+        <v>27367</v>
       </c>
       <c r="J31" s="1">
-        <v>8921</v>
-      </c>
-      <c r="L31" s="50">
+        <v>5522</v>
+      </c>
+      <c r="L31" s="49">
         <f>IFERROR(B31/I31,0)</f>
-        <v>9.4193449413208563E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.10202068184309569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="2">
-        <v>819</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="1">
+        <v>20212</v>
+      </c>
+      <c r="C32" s="4">
+        <v>241</v>
+      </c>
       <c r="D32" s="2">
-        <v>21</v>
+        <v>559</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>571</v>
+      <c r="F32" s="1">
+        <v>18713</v>
       </c>
       <c r="G32" s="2">
-        <v>610</v>
+        <v>516</v>
       </c>
       <c r="H32" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I32" s="1">
-        <v>9958</v>
+        <v>163500</v>
       </c>
       <c r="J32" s="1">
-        <v>7411</v>
-      </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="50">
+        <v>4176</v>
+      </c>
+      <c r="L32" s="49">
         <f>IFERROR(B32/I32,0)</f>
-        <v>8.2245430809399472E-2</v>
+        <v>0.12362079510703364</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1">
-        <v>51027</v>
+        <v>1106</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="1">
-        <v>1700</v>
+      <c r="D33" s="2">
+        <v>42</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1">
-        <v>49235</v>
-      </c>
-      <c r="G33" s="1">
-        <v>5745</v>
+        <v>1064</v>
+      </c>
+      <c r="G33" s="2">
+        <v>380</v>
       </c>
       <c r="H33" s="2">
-        <v>191</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1">
-        <v>100326</v>
+        <v>10775</v>
       </c>
       <c r="J33" s="1">
-        <v>11296</v>
-      </c>
-      <c r="L33" s="50">
+        <v>3704</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="49">
         <f>IFERROR(B33/I33,0)</f>
-        <v>0.50861192512409548</v>
+        <v>0.10264501160092808</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="2">
-        <v>989</v>
+        <v>29</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4042</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2">
-        <v>801</v>
+      <c r="F34" s="1">
+        <v>3931</v>
       </c>
       <c r="G34" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H34" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I34" s="1">
-        <v>23931</v>
+        <v>33026</v>
       </c>
       <c r="J34" s="1">
-        <v>11437</v>
-      </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="50">
+        <v>3925</v>
+      </c>
+      <c r="K34" s="40"/>
+      <c r="L34" s="49">
         <f>IFERROR(B34/I34,0)</f>
-        <v>4.1327148886381677E-2</v>
+        <v>0.12238842124386846</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>161504</v>
+        <v>3018</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="1">
-        <v>7067</v>
+      <c r="D35" s="2">
+        <v>89</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1">
-        <v>138203</v>
-      </c>
-      <c r="G35" s="1">
-        <v>8232</v>
+        <v>2909</v>
+      </c>
+      <c r="G35" s="2">
+        <v>434</v>
       </c>
       <c r="H35" s="2">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="I35" s="1">
-        <v>391549</v>
+        <v>37178</v>
       </c>
       <c r="J35" s="1">
-        <v>19958</v>
-      </c>
-      <c r="K35" s="41"/>
-      <c r="L35" s="50">
+        <v>5352</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="49">
         <f>IFERROR(B35/I35,0)</f>
-        <v>0.4124745561858158</v>
+        <v>8.1177040185055685E-2</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3823</v>
+        <v>39</v>
+      </c>
+      <c r="B36" s="2">
+        <v>560</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="1">
-        <v>3662</v>
+      <c r="F36" s="2">
+        <v>342</v>
       </c>
       <c r="G36" s="2">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="H36" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I36" s="1">
-        <v>47809</v>
+        <v>6625</v>
       </c>
       <c r="J36" s="1">
-        <v>4708</v>
+        <v>4971</v>
       </c>
       <c r="K36" s="40"/>
-      <c r="L36" s="50">
+      <c r="L36" s="49">
         <f>IFERROR(B36/I36,0)</f>
-        <v>7.9964023510217738E-2</v>
+        <v>8.4528301886792459E-2</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2">
-        <v>269</v>
+        <v>683</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
-        <v>163</v>
+        <v>639</v>
       </c>
       <c r="G37" s="2">
-        <v>358</v>
+        <v>202</v>
       </c>
       <c r="H37" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I37" s="1">
-        <v>8990</v>
+        <v>6696</v>
       </c>
       <c r="J37" s="1">
-        <v>11952</v>
-      </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="50">
+        <v>1977</v>
+      </c>
+      <c r="L37" s="49">
         <f>IFERROR(B37/I37,0)</f>
-        <v>2.9922135706340378E-2</v>
+        <v>0.10200119474313023</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="2">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1321</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2">
-        <v>9</v>
-      </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>45</v>
-      </c>
-      <c r="J38" s="2"/>
+      <c r="F38" s="1">
+        <v>1277</v>
+      </c>
+      <c r="G38" s="2">
+        <v>324</v>
+      </c>
+      <c r="H38" s="2">
+        <v>11</v>
+      </c>
+      <c r="I38" s="1">
+        <v>25627</v>
+      </c>
+      <c r="J38" s="1">
+        <v>6278</v>
+      </c>
       <c r="K38" s="41"/>
-      <c r="L38" s="50">
+      <c r="L38" s="49">
         <f>IFERROR(B38/I38,0)</f>
-        <v>0.24444444444444444</v>
+        <v>5.154719631638506E-2</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B39" s="1">
-        <v>5512</v>
+        <v>1270</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2">
-        <v>213</v>
+        <v>29</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1">
-        <v>5299</v>
+        <v>1152</v>
       </c>
       <c r="G39" s="2">
-        <v>473</v>
+        <v>405</v>
       </c>
       <c r="H39" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I39" s="1">
-        <v>55985</v>
+        <v>14973</v>
       </c>
       <c r="J39" s="1">
-        <v>4809</v>
-      </c>
-      <c r="K39" s="41"/>
-      <c r="L39" s="50">
+        <v>4780</v>
+      </c>
+      <c r="K39" s="42"/>
+      <c r="L39" s="49">
         <f>IFERROR(B39/I39,0)</f>
-        <v>9.8454943288380822E-2</v>
+        <v>8.4819341481333063E-2</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1684</v>
+        <v>52</v>
+      </c>
+      <c r="B40" s="2">
+        <v>235</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" s="1">
-        <v>1082</v>
+      <c r="F40" s="2">
+        <v>179</v>
       </c>
       <c r="G40" s="2">
-        <v>430</v>
+        <v>318</v>
       </c>
       <c r="H40" s="2">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I40" s="1">
-        <v>22246</v>
+        <v>7223</v>
       </c>
       <c r="J40" s="1">
-        <v>5678</v>
+        <v>9780</v>
       </c>
       <c r="K40" s="41"/>
-      <c r="L40" s="50">
+      <c r="L40" s="49">
         <f>IFERROR(B40/I40,0)</f>
-        <v>7.5699002067787471E-2</v>
+        <v>3.2534957773778211E-2</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
-        <v>1321</v>
+        <v>1242</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>1277</v>
+      <c r="F41" s="2">
+        <v>517</v>
       </c>
       <c r="G41" s="2">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="H41" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I41" s="1">
-        <v>25627</v>
+        <v>32294</v>
       </c>
       <c r="J41" s="1">
-        <v>6278</v>
+        <v>5843</v>
       </c>
       <c r="K41" s="41"/>
-      <c r="L41" s="50">
+      <c r="L41" s="49">
         <f>IFERROR(B41/I41,0)</f>
-        <v>5.154719631638506E-2</v>
+        <v>3.8459156499659378E-2</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="1">
-        <v>18546</v>
+        <v>44</v>
+      </c>
+      <c r="B42" s="2">
+        <v>989</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2">
-        <v>360</v>
+        <v>17</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="1">
-        <v>18052</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1450</v>
+      <c r="F42" s="2">
+        <v>801</v>
+      </c>
+      <c r="G42" s="2">
+        <v>473</v>
       </c>
       <c r="H42" s="2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I42" s="1">
-        <v>105602</v>
+        <v>23931</v>
       </c>
       <c r="J42" s="1">
-        <v>8256</v>
-      </c>
-      <c r="K42" s="43"/>
-      <c r="L42" s="50">
+        <v>11437</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="49">
         <f>IFERROR(B42/I42,0)</f>
-        <v>0.175621673831935</v>
+        <v>4.1327148886381677E-2</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="2">
-        <v>683</v>
+        <v>15</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11426</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2">
-        <v>40</v>
+        <v>222</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="2">
-        <v>639</v>
+      <c r="F43" s="1">
+        <v>9978</v>
       </c>
       <c r="G43" s="2">
-        <v>202</v>
+        <v>410</v>
       </c>
       <c r="H43" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I43" s="1">
-        <v>6696</v>
+        <v>106134</v>
       </c>
       <c r="J43" s="1">
-        <v>1977</v>
-      </c>
-      <c r="L43" s="50">
+        <v>3806</v>
+      </c>
+      <c r="K43" s="41"/>
+      <c r="L43" s="49">
         <f>IFERROR(B43/I43,0)</f>
-        <v>0.10200119474313023</v>
+        <v>0.10765635894246896</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="1">
-        <v>1727</v>
+        <v>54</v>
+      </c>
+      <c r="B44" s="2">
+        <v>447</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="1">
-        <v>1674</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1634</v>
+      <c r="F44" s="2">
+        <v>280</v>
+      </c>
+      <c r="G44" s="2">
+        <v>517</v>
       </c>
       <c r="H44" s="2">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I44" s="1">
-        <v>14008</v>
+        <v>7147</v>
       </c>
       <c r="J44" s="1">
-        <v>13257</v>
+        <v>8269</v>
       </c>
       <c r="K44" s="41"/>
-      <c r="L44" s="50">
+      <c r="L44" s="49">
         <f>IFERROR(B44/I44,0)</f>
-        <v>0.12328669331810393</v>
+        <v>6.2543724639708975E-2</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1">
-        <v>2792</v>
+        <v>1146</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="1">
-        <v>2725</v>
+      <c r="F45" s="2">
+        <v>820</v>
       </c>
       <c r="G45" s="2">
-        <v>563</v>
+        <v>383</v>
       </c>
       <c r="H45" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I45" s="1">
-        <v>27367</v>
+        <v>15702</v>
       </c>
       <c r="J45" s="1">
-        <v>5522</v>
-      </c>
-      <c r="L45" s="50">
+        <v>5250</v>
+      </c>
+      <c r="K45" s="41"/>
+      <c r="L45" s="49">
         <f>IFERROR(B45/I45,0)</f>
-        <v>0.10202068184309569</v>
+        <v>7.2984333205961024E-2</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="2">
-        <v>447</v>
+        <v>24</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3823</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2">
-        <v>280</v>
+      <c r="F46" s="1">
+        <v>3662</v>
       </c>
       <c r="G46" s="2">
-        <v>517</v>
+        <v>376</v>
       </c>
       <c r="H46" s="2">
         <v>7</v>
       </c>
       <c r="I46" s="1">
-        <v>7147</v>
+        <v>47809</v>
       </c>
       <c r="J46" s="1">
-        <v>8269</v>
-      </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="50">
+        <v>4708</v>
+      </c>
+      <c r="K46" s="40"/>
+      <c r="L46" s="49">
         <f>IFERROR(B46/I46,0)</f>
-        <v>6.2543724639708975E-2</v>
+        <v>7.9964023510217738E-2</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4634</v>
+        <v>53</v>
+      </c>
+      <c r="B47" s="2">
+        <v>269</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="1">
-        <v>3619</v>
+      <c r="F47" s="2">
+        <v>163</v>
       </c>
       <c r="G47" s="2">
-        <v>697</v>
+        <v>358</v>
       </c>
       <c r="H47" s="2">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I47" s="1">
-        <v>59849</v>
+        <v>8990</v>
       </c>
       <c r="J47" s="1">
-        <v>8998</v>
+        <v>11952</v>
       </c>
       <c r="K47" s="41"/>
-      <c r="L47" s="50">
+      <c r="L47" s="49">
         <f>IFERROR(B47/I47,0)</f>
-        <v>7.7428194288960556E-2</v>
+        <v>2.9922135706340378E-2</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B48" s="1">
-        <v>11426</v>
+        <v>50</v>
+      </c>
+      <c r="B48" s="2">
+        <v>567</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="1">
-        <v>9978</v>
+      <c r="F48" s="2">
+        <v>553</v>
       </c>
       <c r="G48" s="2">
-        <v>410</v>
+        <v>298</v>
       </c>
       <c r="H48" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I48" s="1">
-        <v>106134</v>
+        <v>8707</v>
       </c>
       <c r="J48" s="1">
-        <v>3806</v>
+        <v>4571</v>
       </c>
       <c r="K48" s="41"/>
-      <c r="L48" s="50">
+      <c r="L48" s="49">
         <f>IFERROR(B48/I48,0)</f>
-        <v>0.10765635894246896</v>
+        <v>6.5120018376019301E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="45">
-        <v>43</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45">
-        <v>1</v>
-      </c>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45">
-        <v>8</v>
-      </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45">
-        <v>266</v>
-      </c>
-      <c r="J49" s="45"/>
+      <c r="A49" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2">
+        <v>354</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2">
+        <v>6</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2">
+        <v>191</v>
+      </c>
+      <c r="G49" s="2">
+        <v>340</v>
+      </c>
+      <c r="H49" s="2">
+        <v>6</v>
+      </c>
+      <c r="I49" s="1">
+        <v>7860</v>
+      </c>
+      <c r="J49" s="1">
+        <v>7545</v>
+      </c>
       <c r="K49" s="41"/>
-      <c r="L49" s="50">
+      <c r="L49" s="49">
         <f>IFERROR(B49/I49,0)</f>
-        <v>0.16165413533834586</v>
+        <v>4.5038167938931298E-2</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -6575,230 +6589,211 @@
         <v>12601</v>
       </c>
       <c r="K50" s="41"/>
-      <c r="L50" s="50">
+      <c r="L50" s="49">
         <f>IFERROR(B50/I50,0)</f>
         <v>5.1494540432074638E-2</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" s="2">
-        <v>628</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2">
-        <v>605</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1005</v>
+        <v>185</v>
+      </c>
+      <c r="G51" s="2">
+        <v>311</v>
       </c>
       <c r="H51" s="2">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="I51" s="1">
-        <v>8181</v>
+        <v>16149</v>
       </c>
       <c r="J51" s="1">
-        <v>13090</v>
-      </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="50">
+        <v>11356</v>
+      </c>
+      <c r="K51" s="43"/>
+      <c r="L51" s="49">
         <f>IFERROR(B51/I51,0)</f>
-        <v>7.6763231878743426E-2</v>
+        <v>2.7370115796643755E-2</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B52" s="1">
-        <v>4042</v>
+        <v>56</v>
+      </c>
+      <c r="B52" s="2">
+        <v>523</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>3931</v>
+      <c r="F52" s="2">
+        <v>518</v>
       </c>
       <c r="G52" s="2">
-        <v>480</v>
+        <v>286</v>
       </c>
       <c r="H52" s="2">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I52" s="1">
-        <v>33026</v>
+        <v>13863</v>
       </c>
       <c r="J52" s="1">
-        <v>3925</v>
-      </c>
-      <c r="K52" s="40"/>
-      <c r="L52" s="50">
+        <v>7579</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="49">
         <f>IFERROR(B52/I52,0)</f>
-        <v>0.12238842124386846</v>
+        <v>3.7726321863954408E-2</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B53" s="1">
-        <v>9740</v>
-      </c>
-      <c r="C53" s="4">
-        <v>88</v>
-      </c>
-      <c r="D53" s="2">
-        <v>455</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B53" s="2">
+        <v>239</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="1">
-        <v>8211</v>
-      </c>
-      <c r="G53" s="1">
-        <v>1335</v>
-      </c>
-      <c r="H53" s="2">
-        <v>62</v>
-      </c>
+      <c r="F53" s="2">
+        <v>145</v>
+      </c>
+      <c r="G53" s="2">
+        <v>411</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53" s="1">
-        <v>92999</v>
+        <v>4975</v>
       </c>
       <c r="J53" s="1">
-        <v>12749</v>
-      </c>
-      <c r="L53" s="50">
+        <v>8551</v>
+      </c>
+      <c r="K53" s="41"/>
+      <c r="L53" s="49">
         <f>IFERROR(B53/I53,0)</f>
-        <v>0.10473230894955859</v>
+        <v>4.8040201005025124E-2</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B54" s="2">
-        <v>523</v>
+        <v>11</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2">
-        <v>518</v>
-      </c>
-      <c r="G54" s="2">
-        <v>286</v>
-      </c>
-      <c r="H54" s="2">
-        <v>3</v>
-      </c>
-      <c r="I54" s="1">
-        <v>13863</v>
-      </c>
-      <c r="J54" s="1">
-        <v>7579</v>
-      </c>
-      <c r="K54" s="43"/>
-      <c r="L54" s="50">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2">
+        <v>45</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="49">
         <f>IFERROR(B54/I54,0)</f>
-        <v>3.7726321863954408E-2</v>
+        <v>0.24444444444444444</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>2885</v>
+        <v>64</v>
+      </c>
+      <c r="B55" s="2">
+        <v>128</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="1">
-        <v>2709</v>
-      </c>
-      <c r="G55" s="2">
-        <v>499</v>
-      </c>
-      <c r="H55" s="2">
-        <v>19</v>
-      </c>
-      <c r="I55" s="1">
-        <v>34309</v>
-      </c>
-      <c r="J55" s="1">
-        <v>5937</v>
-      </c>
-      <c r="K55" s="43"/>
-      <c r="L55" s="50">
+      <c r="F55" s="2">
+        <v>91</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2">
+        <v>605</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="49">
         <f>IFERROR(B55/I55,0)</f>
-        <v>8.408872307557784E-2</v>
+        <v>0.21157024793388429</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" s="17">
-        <v>239</v>
-      </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17">
-        <v>145</v>
-      </c>
-      <c r="G56" s="17">
-        <v>411</v>
-      </c>
-      <c r="H56" s="17"/>
-      <c r="I56" s="44">
-        <v>4975</v>
-      </c>
-      <c r="J56" s="44">
-        <v>8551</v>
-      </c>
+      <c r="A56" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="46">
+        <v>43</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46">
+        <v>1</v>
+      </c>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46">
+        <v>8</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46">
+        <v>266</v>
+      </c>
+      <c r="J56" s="46"/>
       <c r="K56" s="41"/>
-      <c r="L56" s="50">
+      <c r="L56" s="49">
         <f>IFERROR(B56/I56,0)</f>
-        <v>4.8040201005025124E-2</v>
+        <v>0.16165413533834586</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:N56" xr:uid="{0FFC770D-E812-4BB2-BFE4-43D655F753EE}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N56">
-      <sortCondition ref="A1:A56"/>
+      <sortCondition descending="1" ref="H1:H56"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="L2:L56">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
-      <formula>0.1</formula>
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+      <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="between">
-      <formula>0.15</formula>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
+      <formula>0.3</formula>
       <formula>0.2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>0.2</formula>
-      <formula>0.3</formula>
+      <formula>0.15</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>0.3</formula>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+      <formula>0.15</formula>
+      <formula>0.1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="notBetween">
-      <formula>0</formula>
-      <formula>1</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7197,10 +7192,10 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="45">
+      <c r="B49" s="44">
         <v>1</v>
       </c>
     </row>
@@ -7268,7 +7263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F85D94-125B-480E-B197-8044C0D76B30}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C54"/>
     </sheetView>
   </sheetViews>
@@ -7294,7 +7289,7 @@
       <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="50">
         <v>78</v>
       </c>
     </row>
@@ -7302,7 +7297,7 @@
       <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="50">
         <v>7</v>
       </c>
     </row>
@@ -7313,7 +7308,7 @@
       <c r="B4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="50">
         <v>89</v>
       </c>
     </row>
@@ -7324,7 +7319,7 @@
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="50">
         <v>21</v>
       </c>
     </row>
@@ -7335,7 +7330,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="50">
         <v>559</v>
       </c>
     </row>
@@ -7346,7 +7341,7 @@
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="50">
         <v>226</v>
       </c>
     </row>
@@ -7357,7 +7352,7 @@
       <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="50">
         <v>380</v>
       </c>
     </row>
@@ -7368,7 +7363,7 @@
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="50">
         <v>23</v>
       </c>
     </row>
@@ -7379,7 +7374,7 @@
       <c r="B10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="53">
+      <c r="C10" s="50">
         <v>32</v>
       </c>
     </row>
@@ -7390,7 +7385,7 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="53">
+      <c r="C11" s="50">
         <v>371</v>
       </c>
     </row>
@@ -7401,7 +7396,7 @@
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="53">
+      <c r="C12" s="50">
         <v>412</v>
       </c>
     </row>
@@ -7412,7 +7407,7 @@
       <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="50">
         <v>4</v>
       </c>
     </row>
@@ -7420,7 +7415,7 @@
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="50">
         <v>6</v>
       </c>
     </row>
@@ -7431,7 +7426,7 @@
       <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="50">
         <v>24</v>
       </c>
     </row>
@@ -7442,7 +7437,7 @@
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="50">
         <v>528</v>
       </c>
     </row>
@@ -7453,7 +7448,7 @@
       <c r="B17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="53">
+      <c r="C17" s="50">
         <v>245</v>
       </c>
     </row>
@@ -7464,7 +7459,7 @@
       <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="50">
         <v>29</v>
       </c>
     </row>
@@ -7475,7 +7470,7 @@
       <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="53">
+      <c r="C19" s="50">
         <v>42</v>
       </c>
     </row>
@@ -7486,7 +7481,7 @@
       <c r="B20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="53">
+      <c r="C20" s="50">
         <v>79</v>
       </c>
     </row>
@@ -7497,7 +7492,7 @@
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="53">
+      <c r="C21" s="50">
         <v>702</v>
       </c>
     </row>
@@ -7505,7 +7500,7 @@
       <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="53">
+      <c r="C22" s="50">
         <v>16</v>
       </c>
     </row>
@@ -7516,7 +7511,7 @@
       <c r="B23" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="50">
         <v>138</v>
       </c>
     </row>
@@ -7527,7 +7522,7 @@
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="53">
+      <c r="C24" s="50">
         <v>503</v>
       </c>
     </row>
@@ -7538,7 +7533,7 @@
       <c r="B25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="50">
         <v>1076</v>
       </c>
     </row>
@@ -7549,7 +7544,7 @@
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="53">
+      <c r="C26" s="50">
         <v>50</v>
       </c>
     </row>
@@ -7560,7 +7555,7 @@
       <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="53">
+      <c r="C27" s="50">
         <v>76</v>
       </c>
     </row>
@@ -7571,7 +7566,7 @@
       <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="53">
+      <c r="C28" s="50">
         <v>91</v>
       </c>
     </row>
@@ -7579,7 +7574,7 @@
       <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="53">
+      <c r="C29" s="50">
         <v>6</v>
       </c>
     </row>
@@ -7587,7 +7582,7 @@
       <c r="B30" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="53">
+      <c r="C30" s="50">
         <v>14</v>
       </c>
     </row>
@@ -7598,7 +7593,7 @@
       <c r="B31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="50">
         <v>86</v>
       </c>
     </row>
@@ -7609,7 +7604,7 @@
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="53">
+      <c r="C32" s="50">
         <v>21</v>
       </c>
     </row>
@@ -7620,7 +7615,7 @@
       <c r="B33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="53">
+      <c r="C33" s="50">
         <v>1700</v>
       </c>
     </row>
@@ -7631,7 +7626,7 @@
       <c r="B34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="53">
+      <c r="C34" s="50">
         <v>17</v>
       </c>
     </row>
@@ -7642,7 +7637,7 @@
       <c r="B35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="53">
+      <c r="C35" s="50">
         <v>7067</v>
       </c>
     </row>
@@ -7653,7 +7648,7 @@
       <c r="B36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C36" s="53">
+      <c r="C36" s="50">
         <v>75</v>
       </c>
     </row>
@@ -7661,7 +7656,7 @@
       <c r="B37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="53">
+      <c r="C37" s="50">
         <v>5</v>
       </c>
     </row>
@@ -7672,7 +7667,7 @@
       <c r="B38" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="53">
+      <c r="C38" s="50">
         <v>213</v>
       </c>
     </row>
@@ -7683,7 +7678,7 @@
       <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="53">
+      <c r="C39" s="50">
         <v>80</v>
       </c>
     </row>
@@ -7694,7 +7689,7 @@
       <c r="B40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="50">
         <v>44</v>
       </c>
     </row>
@@ -7705,7 +7700,7 @@
       <c r="B41" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="50">
         <v>360</v>
       </c>
     </row>
@@ -7716,7 +7711,7 @@
       <c r="B42" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C42" s="53">
+      <c r="C42" s="50">
         <v>40</v>
       </c>
     </row>
@@ -7724,7 +7719,7 @@
       <c r="B43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="53">
+      <c r="C43" s="50">
         <v>43</v>
       </c>
     </row>
@@ -7735,7 +7730,7 @@
       <c r="B44" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="53">
+      <c r="C44" s="50">
         <v>67</v>
       </c>
     </row>
@@ -7746,7 +7741,7 @@
       <c r="B45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C45" s="53">
+      <c r="C45" s="50">
         <v>6</v>
       </c>
     </row>
@@ -7757,7 +7752,7 @@
       <c r="B46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="53">
+      <c r="C46" s="50">
         <v>94</v>
       </c>
     </row>
@@ -7768,7 +7763,7 @@
       <c r="B47" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="50">
         <v>222</v>
       </c>
     </row>
@@ -7779,7 +7774,7 @@
       <c r="B48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="53">
+      <c r="C48" s="50">
         <v>13</v>
       </c>
     </row>
@@ -7790,7 +7785,7 @@
       <c r="B49" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="53">
+      <c r="C49" s="50">
         <v>23</v>
       </c>
     </row>
@@ -7801,7 +7796,7 @@
       <c r="B50" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="53">
+      <c r="C50" s="50">
         <v>109</v>
       </c>
     </row>
@@ -7812,7 +7807,7 @@
       <c r="B51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="53">
+      <c r="C51" s="50">
         <v>455</v>
       </c>
     </row>
@@ -7820,7 +7815,7 @@
       <c r="B52" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="50">
         <v>5</v>
       </c>
     </row>
@@ -7831,7 +7826,7 @@
       <c r="B53" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="53">
+      <c r="C53" s="50">
         <v>111</v>
       </c>
     </row>
@@ -7842,7 +7837,7 @@
       <c r="B54" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C54" s="54">
+      <c r="C54" s="51">
         <v>0</v>
       </c>
     </row>
